--- a/2022/Symphony/Others/Target/July/Primary_Secondary Target Feedback July'22 of Rajshahi Region (2).xlsx
+++ b/2022/Symphony/Others/Target/July/Primary_Secondary Target Feedback July'22 of Rajshahi Region (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Target\July\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1271,6 +1271,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,26 +1312,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2638,130 +2638,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
+    <row r="8" spans="1:41" s="118" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="113">
         <f t="shared" si="0"/>
         <v>17856912.075242721</v>
       </c>
-      <c r="F8" s="120">
+      <c r="F8" s="113">
         <f t="shared" si="1"/>
         <v>9044</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="113">
         <v>744</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="113">
         <v>892</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="113">
         <v>744</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="113">
         <v>595</v>
       </c>
-      <c r="K8" s="120">
+      <c r="K8" s="113">
         <v>595</v>
       </c>
-      <c r="L8" s="120">
+      <c r="L8" s="113">
         <v>595</v>
       </c>
-      <c r="M8" s="120">
+      <c r="M8" s="113">
         <v>297</v>
       </c>
-      <c r="N8" s="120">
+      <c r="N8" s="113">
         <v>223</v>
       </c>
-      <c r="O8" s="120">
+      <c r="O8" s="113">
         <v>223</v>
       </c>
-      <c r="P8" s="120">
+      <c r="P8" s="113">
         <v>446</v>
       </c>
-      <c r="Q8" s="120">
+      <c r="Q8" s="113">
         <v>74</v>
       </c>
-      <c r="R8" s="120">
+      <c r="R8" s="113">
         <v>372</v>
       </c>
-      <c r="S8" s="120">
+      <c r="S8" s="113">
         <v>149</v>
       </c>
-      <c r="T8" s="120">
+      <c r="T8" s="113">
         <v>149</v>
       </c>
-      <c r="U8" s="120">
+      <c r="U8" s="113">
         <v>372</v>
       </c>
-      <c r="V8" s="120">
+      <c r="V8" s="113">
         <v>149</v>
       </c>
-      <c r="W8" s="120">
+      <c r="W8" s="113">
         <v>223</v>
       </c>
-      <c r="X8" s="120">
+      <c r="X8" s="113">
         <v>297</v>
       </c>
-      <c r="Y8" s="120">
+      <c r="Y8" s="113">
         <v>297</v>
       </c>
-      <c r="Z8" s="120">
+      <c r="Z8" s="113">
         <v>297</v>
       </c>
-      <c r="AA8" s="120">
+      <c r="AA8" s="113">
         <v>104</v>
       </c>
-      <c r="AB8" s="120">
+      <c r="AB8" s="113">
         <v>223</v>
       </c>
-      <c r="AC8" s="120">
+      <c r="AC8" s="113">
         <v>25</v>
       </c>
-      <c r="AD8" s="120">
+      <c r="AD8" s="113">
         <v>61</v>
       </c>
-      <c r="AE8" s="120">
+      <c r="AE8" s="113">
         <v>61</v>
       </c>
-      <c r="AF8" s="120">
+      <c r="AF8" s="113">
         <v>49</v>
       </c>
-      <c r="AG8" s="120">
+      <c r="AG8" s="113">
         <v>49</v>
       </c>
-      <c r="AH8" s="120">
+      <c r="AH8" s="113">
         <v>232</v>
       </c>
-      <c r="AI8" s="120">
+      <c r="AI8" s="113">
         <v>116</v>
       </c>
-      <c r="AJ8" s="120">
+      <c r="AJ8" s="113">
         <v>49</v>
       </c>
-      <c r="AK8" s="120">
+      <c r="AK8" s="113">
         <v>61</v>
       </c>
-      <c r="AL8" s="120">
+      <c r="AL8" s="113">
         <v>61</v>
       </c>
-      <c r="AM8" s="121">
+      <c r="AM8" s="114">
         <v>116</v>
       </c>
-      <c r="AN8" s="122">
+      <c r="AN8" s="115">
         <v>86</v>
       </c>
-      <c r="AO8" s="123">
+      <c r="AO8" s="116">
         <v>18</v>
       </c>
     </row>
@@ -3400,130 +3400,130 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="118" t="s">
+    <row r="14" spans="1:41" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="113">
         <f t="shared" si="0"/>
         <v>17523515.820388351</v>
       </c>
-      <c r="F14" s="120">
+      <c r="F14" s="113">
         <f t="shared" si="1"/>
         <v>8639</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="113">
         <v>704</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="113">
         <v>846</v>
       </c>
-      <c r="I14" s="120">
+      <c r="I14" s="113">
         <v>704</v>
       </c>
-      <c r="J14" s="120">
+      <c r="J14" s="113">
         <v>563</v>
       </c>
-      <c r="K14" s="120">
+      <c r="K14" s="113">
         <v>563</v>
       </c>
-      <c r="L14" s="120">
+      <c r="L14" s="113">
         <v>563</v>
       </c>
-      <c r="M14" s="120">
+      <c r="M14" s="113">
         <v>282</v>
       </c>
-      <c r="N14" s="120">
+      <c r="N14" s="113">
         <v>212</v>
       </c>
-      <c r="O14" s="120">
+      <c r="O14" s="113">
         <v>212</v>
       </c>
-      <c r="P14" s="120">
+      <c r="P14" s="113">
         <v>423</v>
       </c>
-      <c r="Q14" s="120">
+      <c r="Q14" s="113">
         <v>71</v>
       </c>
-      <c r="R14" s="120">
+      <c r="R14" s="113">
         <v>352</v>
       </c>
-      <c r="S14" s="120">
+      <c r="S14" s="113">
         <v>141</v>
       </c>
-      <c r="T14" s="120">
+      <c r="T14" s="113">
         <v>141</v>
       </c>
-      <c r="U14" s="120">
+      <c r="U14" s="113">
         <v>352</v>
       </c>
-      <c r="V14" s="120">
+      <c r="V14" s="113">
         <v>141</v>
       </c>
-      <c r="W14" s="120">
+      <c r="W14" s="113">
         <v>212</v>
       </c>
-      <c r="X14" s="120">
+      <c r="X14" s="113">
         <v>282</v>
       </c>
-      <c r="Y14" s="120">
+      <c r="Y14" s="113">
         <v>282</v>
       </c>
-      <c r="Z14" s="120">
+      <c r="Z14" s="113">
         <v>282</v>
       </c>
-      <c r="AA14" s="120">
+      <c r="AA14" s="113">
         <v>99</v>
       </c>
-      <c r="AB14" s="120">
+      <c r="AB14" s="113">
         <v>212</v>
       </c>
-      <c r="AC14" s="120">
+      <c r="AC14" s="113">
         <v>25</v>
       </c>
-      <c r="AD14" s="120">
+      <c r="AD14" s="113">
         <v>64</v>
       </c>
-      <c r="AE14" s="120">
+      <c r="AE14" s="113">
         <v>64</v>
       </c>
-      <c r="AF14" s="120">
+      <c r="AF14" s="113">
         <v>46</v>
       </c>
-      <c r="AG14" s="120">
+      <c r="AG14" s="113">
         <v>51</v>
       </c>
-      <c r="AH14" s="120">
+      <c r="AH14" s="113">
         <v>229</v>
       </c>
-      <c r="AI14" s="120">
+      <c r="AI14" s="113">
         <v>116</v>
       </c>
-      <c r="AJ14" s="120">
+      <c r="AJ14" s="113">
         <v>51</v>
       </c>
-      <c r="AK14" s="120">
+      <c r="AK14" s="113">
         <v>64</v>
       </c>
-      <c r="AL14" s="120">
+      <c r="AL14" s="113">
         <v>64</v>
       </c>
-      <c r="AM14" s="121">
+      <c r="AM14" s="114">
         <v>120</v>
       </c>
-      <c r="AN14" s="122">
+      <c r="AN14" s="115">
         <v>87</v>
       </c>
-      <c r="AO14" s="123">
+      <c r="AO14" s="116">
         <v>19</v>
       </c>
     </row>
@@ -3782,12 +3782,12 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="89">
         <f t="shared" ref="E17:AO17" si="2">SUM(E4:E16)</f>
         <v>158507831.20145634</v>
@@ -5884,12 +5884,12 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="89">
         <f t="shared" ref="E17:AO17" si="2">SUM(E4:E16)</f>
         <v>162841057</v>
@@ -6089,25 +6089,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="120" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="69">
@@ -6217,13 +6217,13 @@
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="48" t="s">
         <v>192</v>
       </c>
@@ -16935,25 +16935,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="120" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="47">
@@ -17063,13 +17063,13 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="48" t="s">
         <v>192</v>
       </c>
@@ -30402,10 +30402,10 @@
   <dimension ref="A1:BZ81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -30442,25 +30442,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="120" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="47">
@@ -30570,13 +30570,13 @@
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="48" t="s">
         <v>192</v>
       </c>
